--- a/Opgave 4.xlsx
+++ b/Opgave 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91c933c6e1bc87e3/Dokumenter/Uni/34. PUK/Aflevering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="8_{796E2347-CE0E-49BF-BE8E-28DE4E7AA06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B4EB97-A819-4026-8226-2F9C54B99888}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{796E2347-CE0E-49BF-BE8E-28DE4E7AA06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F1DDC5-0DD4-47C3-B1EC-B038EB36CD11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{BA9980C5-82DE-4ADA-8CAC-6BEDACA29F53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BA9980C5-82DE-4ADA-8CAC-6BEDACA29F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Find Numx" sheetId="1" r:id="rId1"/>
@@ -656,57 +656,57 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Graph!$A$4:$A$11</c:f>
+              <c:f>Graph!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Graph!$B$4:$B$11</c:f>
+              <c:f>Graph!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000000000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>7.2421476105057711E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9411383721768966E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.9419983564961147E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>7.9419983960400828E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>7.941998396040216E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.941998396040148E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.941998396040148E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.941998396040148E-2</c:v>
@@ -715,7 +715,7 @@
                   <c:v>7.941998396040148E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.941998396040216E-2</c:v>
+                  <c:v>7.941998396040148E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,16 +2025,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2402,7 +2402,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2821,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDD806D-CC54-4785-B81B-DDEE22B6451D}">
   <dimension ref="A1:AE204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10683,8 +10683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D57AC6-767B-4AB6-94F2-A788AAF3ECB0}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Opgave 4.xlsx
+++ b/Opgave 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91c933c6e1bc87e3/Dokumenter/Uni/34. PUK/Aflevering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{796E2347-CE0E-49BF-BE8E-28DE4E7AA06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9669BFBD-E65F-4C58-A56C-9B290164486A}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{796E2347-CE0E-49BF-BE8E-28DE4E7AA06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F1DDC5-0DD4-47C3-B1EC-B038EB36CD11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BA9980C5-82DE-4ADA-8CAC-6BEDACA29F53}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Udregning" sheetId="2" r:id="rId2"/>
     <sheet name="Graph" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,10 +156,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="174" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000000000000000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000000000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -190,12 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,15 +262,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graph!$B$1</c:f>
+              <c:f>Graph!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FD pris</c:v>
+                  <c:v>Procent masse</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -280,7 +278,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -291,11 +289,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -303,35 +301,38 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Graph!$A$3:$A$11</c:f>
+              <c:f>Graph!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -339,36 +340,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Graph!$B$3:$B$11</c:f>
+              <c:f>Graph!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000000000000000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00000000000000000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.9411383721768966E-2</c:v>
+                  <c:v>0.67263957699071153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9419983564961147E-2</c:v>
+                  <c:v>0.81445331523865128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9419983960400828E-2</c:v>
+                  <c:v>0.91014375256050006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.941998396040216E-2</c:v>
+                  <c:v>0.96318086493984867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.941998396040148E-2</c:v>
+                  <c:v>0.9873263406612659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.941998396040148E-2</c:v>
+                  <c:v>0.99635482095423222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.941998396040148E-2</c:v>
+                  <c:v>0.99912744065023551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.941998396040148E-2</c:v>
+                  <c:v>0.99982669032443272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.941998396040216E-2</c:v>
+                  <c:v>0.99997150294188331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999612789178449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,7 +380,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-76A8-4D4F-8014-548B3C4605B4}"/>
+              <c16:uniqueId val="{00000000-E125-4158-A41B-821BBBC23683}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -388,158 +392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="862469856"/>
-        <c:axId val="862470688"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Graph!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>FD pris</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Graph!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Graph!$B$2:$B$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.000000000000000000000</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>7.2421476105057711E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7.9411383721768966E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.9419983564961147E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>7.9419983960400828E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7.941998396040216E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>7.941998396040148E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7.941998396040148E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7.941998396040148E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>7.941998396040148E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>7.941998396040216E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-76A8-4D4F-8014-548B3C4605B4}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="2090482480"/>
+        <c:axId val="2090481648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="862469856"/>
+        <c:axId val="2090482480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,14 +453,16 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862470688"/>
+        <c:crossAx val="2090481648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="862470688"/>
+        <c:axId val="2090481648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.02"/>
+          <c:min val="0.65000000000000013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -621,7 +480,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000000000000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -658,7 +517,350 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862469856"/>
+        <c:crossAx val="2090482480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FD pris</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graph!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.2421476105057711E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9411383721768966E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9419983564961147E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9419983960400828E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.941998396040216E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.941998396040148E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.941998396040148E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.941998396040148E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7C0-40B4-AB0A-A306FCBC9DEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2093243456"/>
+        <c:axId val="2093240960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2093243456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2093240960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2093240960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7.9423215966815036E-2"/>
+          <c:min val="7.9388215966820011E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2093243456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -708,6 +910,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1263,27 +1505,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2">
+        <xdr:cNvPr id="2" name="Diagram 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B6951A-A8C9-3962-2774-0AA7AD4D4335}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DC69F0-AF77-8D9F-1FDD-C2C9DBA8F145}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,6 +2054,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91AAFFE-50F1-7F4E-767E-E4784309A143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1608,7 +2402,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2785,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>10</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2822,7 @@
   <dimension ref="A1:AE204"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C5" sqref="C5:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9890,13 +10684,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9914,7 +10707,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>Udregning!D2</f>
         <v>7.2421476105057711E-2</v>
       </c>
@@ -9927,7 +10720,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>Udregning!G2</f>
         <v>7.9411383721768966E-2</v>
       </c>
@@ -9940,7 +10733,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>Udregning!J2</f>
         <v>7.9419983564961147E-2</v>
       </c>
@@ -9953,7 +10746,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>Udregning!M2</f>
         <v>7.9419983960400828E-2</v>
       </c>
@@ -9966,7 +10759,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>Udregning!P2</f>
         <v>7.941998396040216E-2</v>
       </c>
@@ -9979,7 +10772,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f>Udregning!S2</f>
         <v>7.941998396040148E-2</v>
       </c>
@@ -9992,7 +10785,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f>Udregning!V2</f>
         <v>7.941998396040148E-2</v>
       </c>
@@ -10005,7 +10798,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>Udregning!Y2</f>
         <v>7.941998396040148E-2</v>
       </c>
@@ -10018,7 +10811,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f>Udregning!AB2</f>
         <v>7.941998396040148E-2</v>
       </c>
@@ -10031,7 +10824,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>Udregning!AE2</f>
         <v>7.941998396040216E-2</v>
       </c>
